--- a/meta/program/BlancoValueObjectTsTask.xlsx
+++ b/meta/program/BlancoValueObjectTsTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2985AE-FCEF-5841-9890-DA3D4F7EDEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225E21F7-2D0B-6D4D-AB30-0C56A0D4F487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -362,6 +362,17 @@
   </si>
   <si>
     <t>lineSeparator</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>generateToJson</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>toJSONメソッドを生成します</t>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1357,10 +1368,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:I23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1560,7 +1571,7 @@
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="49">
-        <f t="shared" ref="A16:A23" si="0">A15+1</f>
+        <f t="shared" ref="A16:A24" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="50" t="s">
@@ -1730,16 +1741,27 @@
       <c r="H23" s="64"/>
       <c r="I23" s="65"/>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="42"/>
+    <row r="24" spans="1:9" ht="52" customHeight="1">
+      <c r="A24" s="49">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>21</v>
+      </c>
       <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
+      <c r="E24" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="22"/>
@@ -1775,18 +1797,31 @@
       <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="F24:I24"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
@@ -1802,18 +1837,17 @@
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F12:I13"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F44" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F45" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D28" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D29" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C28" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoValueObjectTsTask.xlsx
+++ b/meta/program/BlancoValueObjectTsTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225E21F7-2D0B-6D4D-AB30-0C56A0D4F487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3BCF3E-1AD2-CB4B-9459-1846A925C010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -375,12 +375,38 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>searchTmpdir</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>listClassの対象とするtmpディレクトリをカンマ区切りで指定します。指定ディレクトリ直下のvalueobjectディレクトリの下にxmlを探しにいきます。</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">タイショウトスル </t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t xml:space="preserve">チョッカ </t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t xml:space="preserve">シタニ </t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t xml:space="preserve">サガシニ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -433,6 +459,12 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -840,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -946,6 +978,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -994,12 +1032,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1371,7 +1411,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F25" sqref="F25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1417,10 +1457,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
@@ -1430,10 +1470,10 @@
       <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
@@ -1444,10 +1484,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
@@ -1458,10 +1498,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1493,38 +1533,38 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="44">
@@ -1540,12 +1580,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="71"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="49">
@@ -1562,16 +1602,16 @@
       <c r="E15" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="77" t="s">
+      <c r="F15" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="81"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="49">
-        <f t="shared" ref="A16:A24" si="0">A15+1</f>
+        <f t="shared" ref="A16:A25" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="50" t="s">
@@ -1584,12 +1624,12 @@
       <c r="E16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="49">
@@ -1692,12 +1732,12 @@
       <c r="E21" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="76"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="1:9" ht="52" customHeight="1">
       <c r="A22" s="49">
@@ -1712,12 +1752,12 @@
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="63" t="s">
+      <c r="F22" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="65"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="1:9" ht="52" customHeight="1">
       <c r="A23" s="49">
@@ -1734,12 +1774,12 @@
       <c r="E23" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:9" ht="52" customHeight="1">
       <c r="A24" s="49">
@@ -1756,23 +1796,32 @@
       <c r="E24" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
+      <c r="A25" s="83">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="67"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="22"/>
@@ -1819,7 +1868,9 @@
       <c r="I29" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="F12:I13"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F23:I23"/>
@@ -1836,7 +1887,6 @@
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
@@ -1844,10 +1894,10 @@
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D29" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D24 D26:D29" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C29" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C24 C26:C29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoValueObjectTsTask.xlsx
+++ b/meta/program/BlancoValueObjectTsTask.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3BCF3E-1AD2-CB4B-9459-1846A925C010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4B9C4D-9F37-1642-9200-37D801045263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -380,7 +380,11 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>listClassの対象とするtmpディレクトリをカンマ区切りで指定します。指定ディレクトリ直下のvalueobjectディレクトリの下にxmlを探しにいきます。</t>
+    <t>listTmpdir</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>listClassの対象とするtmpディレクトリをカンマ区切りで指定します。指定ディレクトリ直下のvalueobjectディレクトリの下にxmlを探しにいきます。この回の生成で対象となるmetadirのクラスは全て対象となりますので、ここには指定しません。</t>
     <rPh sb="10" eb="12">
       <t xml:space="preserve">タイショウトスル </t>
     </rPh>
@@ -398,6 +402,43 @@
     </rPh>
     <rPh sb="73" eb="74">
       <t xml:space="preserve">サガシニ </t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t xml:space="preserve">カイノ </t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t xml:space="preserve">セイセイ </t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t xml:space="preserve">タイショウトナル </t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t xml:space="preserve">スベテ </t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t xml:space="preserve">タイショウ </t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>import 文自動生成時に package を検索にいくtmpdir をカンマ区切りで指定します。</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ブｎ </t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t xml:space="preserve">ジドウセイセイ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">ジニ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">ケンサク </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">シテイ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -978,20 +1019,37 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1023,23 +1081,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1411,7 +1452,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:I25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1457,10 +1498,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
@@ -1470,10 +1511,10 @@
       <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
@@ -1484,10 +1525,10 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
@@ -1498,10 +1539,10 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="11" t="s">
         <v>7</v>
       </c>
@@ -1533,38 +1574,38 @@
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="44">
@@ -1580,12 +1621,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="48"/>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="71"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="78"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="49">
@@ -1602,16 +1643,16 @@
       <c r="E15" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="81"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="49">
-        <f t="shared" ref="A16:A25" si="0">A15+1</f>
+        <f t="shared" ref="A16:A26" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="50" t="s">
@@ -1624,12 +1665,12 @@
       <c r="E16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="81"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="69"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="49">
@@ -1732,12 +1773,12 @@
       <c r="E21" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="76" t="s">
+      <c r="F21" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="85"/>
     </row>
     <row r="22" spans="1:9" ht="52" customHeight="1">
       <c r="A22" s="49">
@@ -1752,12 +1793,12 @@
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="67"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="1:9" ht="52" customHeight="1">
       <c r="A23" s="49">
@@ -1774,12 +1815,12 @@
       <c r="E23" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="67"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9" ht="52" customHeight="1">
       <c r="A24" s="49">
@@ -1796,40 +1837,49 @@
       <c r="E24" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="83">
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="72"/>
+    </row>
+    <row r="25" spans="1:9" ht="49" customHeight="1">
+      <c r="A25" s="63">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B25" s="84" t="s">
-        <v>55</v>
+      <c r="B25" s="64" t="s">
+        <v>56</v>
       </c>
       <c r="C25" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="67"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="42"/>
+      <c r="A26" s="63">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>27</v>
+      </c>
       <c r="D26" s="24"/>
       <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
+      <c r="F26" s="62" t="s">
+        <v>58</v>
+      </c>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="27"/>
@@ -1869,11 +1919,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F23:I23"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1884,6 +1929,11 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F15:I15"/>
@@ -1897,7 +1947,7 @@
     <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D24 D26:D29" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C24 C26:C29" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C24 C27:C29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
   </dataValidations>

--- a/meta/program/BlancoValueObjectTsTask.xlsx
+++ b/meta/program/BlancoValueObjectTsTask.xlsx
@@ -1,30 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4B9C4D-9F37-1642-9200-37D801045263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FA87AA-7511-F142-B752-A66FC8061189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Submit有無">#REF!</definedName>
-    <definedName name="Validate実装パターン">#REF!</definedName>
-    <definedName name="チェック種別">#REF!</definedName>
-    <definedName name="デリミタ">#REF!</definedName>
-    <definedName name="デリミタ選択肢">#REF!</definedName>
-    <definedName name="型">#REF!</definedName>
     <definedName name="型リスト">config!$A$5:$A$12</definedName>
-    <definedName name="項目型">#REF!</definedName>
     <definedName name="必須">config!$C$5:$C$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -439,6 +432,26 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>preferAlias</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プロパティ値に別名が設定されていた場合、name を alias で上書きする。</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ベツメイ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">バアイ、 </t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">ウワガキ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -539,7 +552,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -909,28 +922,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,9 +968,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -957,19 +978,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -988,7 +1006,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1003,22 +1021,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1026,8 +1043,26 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1045,42 +1080,23 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1449,10 +1465,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1473,7 +1489,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1498,58 +1514,56 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
+      <c r="F6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="75"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10"/>
@@ -1561,364 +1575,395 @@
       <c r="G10"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="79"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
-      <c r="A14" s="44">
+      <c r="A14" s="36">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="76" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="78"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
-      <c r="A15" s="49">
+      <c r="A15" s="41">
         <f>A14+1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="60" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="F15" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
-      <c r="A16" s="49">
-        <f t="shared" ref="A16:A26" si="0">A15+1</f>
+      <c r="A16" s="41">
+        <f t="shared" ref="A16:A27" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="49">
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="41">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="55" t="s">
+      <c r="D17" s="44"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="49">
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="52"/>
-      <c r="E18" s="54">
+      <c r="D18" s="44"/>
+      <c r="E18" s="46">
         <v>4</v>
       </c>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="49">
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="56" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="49">
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="58" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="1:9" ht="66" customHeight="1">
-      <c r="A21" s="49">
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" ht="66" customHeight="1">
+      <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="61" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="83" t="s">
+      <c r="F21" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="85"/>
-    </row>
-    <row r="22" spans="1:9" ht="52" customHeight="1">
-      <c r="A22" s="49">
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74"/>
+    </row>
+    <row r="22" spans="1:10" ht="52" customHeight="1">
+      <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="70" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="72"/>
-    </row>
-    <row r="23" spans="1:9" ht="52" customHeight="1">
-      <c r="A23" s="49">
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="69"/>
+    </row>
+    <row r="23" spans="1:10" ht="52" customHeight="1">
+      <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="61" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="70" t="s">
+      <c r="F23" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="72"/>
-    </row>
-    <row r="24" spans="1:9" ht="52" customHeight="1">
-      <c r="A24" s="49">
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+    </row>
+    <row r="24" spans="1:10" ht="52" customHeight="1">
+      <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="61" t="b">
+      <c r="D24" s="19"/>
+      <c r="E24" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
-    </row>
-    <row r="25" spans="1:9" ht="49" customHeight="1">
-      <c r="A25" s="63">
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="69"/>
+    </row>
+    <row r="25" spans="1:10" ht="49" customHeight="1">
+      <c r="A25" s="54">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="70" t="s">
+      <c r="D25" s="56"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="72"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="63">
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="54">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="62" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" s="78" customFormat="1">
+      <c r="A27" s="41">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="77"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F15:I15"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1929,26 +1974,22 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F15:I15"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F45" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F46" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D24 D26:D29" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D24 D26 D28:D30" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C24 C27:C29" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C24 C28:C30" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D27" xr:uid="{DED57371-C83B-3244-A770-3E3214D9F4B1}">
+      <formula1>必須</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.59027777777777779" right="0.59027777777777779" top="0.59027777777777779" bottom="0.39375000000000004" header="0.51180555555555562" footer="0.11805555555555557"/>
@@ -1980,10 +2021,10 @@
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="F1" s="34" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="29" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1991,63 +2032,63 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B4"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B5"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="32" t="s">
         <v>18</v>
       </c>
       <c r="B6"/>
-      <c r="C6" s="18"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="40"/>
+      <c r="A10" s="32"/>
       <c r="B10"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="40"/>
+      <c r="A11" s="32"/>
       <c r="B11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
+      <c r="A12" s="33"/>
       <c r="B12"/>
     </row>
     <row r="13" spans="1:6">

--- a/meta/program/BlancoValueObjectTsTask.xlsx
+++ b/meta/program/BlancoValueObjectTsTask.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectTs/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FA87AA-7511-F142-B752-A66FC8061189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B16865-0E6B-E24C-B052-C804DE6E3DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4720" yWindow="3480" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="anttask" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t>AntTask定義書</t>
   </si>
@@ -452,6 +452,35 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t xml:space="preserve">ウワガキ </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>strictNullable</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Nullable な property に対して、? の付与をやめて | undefined | null の定義を行う。false の場合は ? が付与されて | undefined のみ付与される。</t>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">タイシテ </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">フヨ </t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t xml:space="preserve">テイギヲ </t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t xml:space="preserve">バアイハ </t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t xml:space="preserve">フヨサレテ </t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t xml:space="preserve">フヨ </t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -939,7 +968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1043,25 +1072,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1094,9 +1107,26 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1465,10 +1495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1514,10 +1544,10 @@
       <c r="F5"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="6" t="s">
         <v>43</v>
       </c>
@@ -1526,10 +1556,10 @@
       <c r="F6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
@@ -1540,10 +1570,10 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="57"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="6" t="s">
         <v>45</v>
       </c>
@@ -1554,10 +1584,10 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="57"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1588,38 +1618,38 @@
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="36">
@@ -1635,12 +1665,12 @@
         <v>13</v>
       </c>
       <c r="E14" s="40"/>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="75"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="41">
@@ -1657,16 +1687,16 @@
       <c r="E15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="41">
-        <f t="shared" ref="A16:A27" si="0">A15+1</f>
+        <f t="shared" ref="A16:A28" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="42" t="s">
@@ -1679,12 +1709,12 @@
       <c r="E16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="66"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="41">
@@ -1787,12 +1817,12 @@
       <c r="E21" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
     </row>
     <row r="22" spans="1:10" ht="52" customHeight="1">
       <c r="A22" s="41">
@@ -1807,12 +1837,12 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="69"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="52" customHeight="1">
       <c r="A23" s="41">
@@ -1829,12 +1859,12 @@
       <c r="E23" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="52" customHeight="1">
       <c r="A24" s="41">
@@ -1851,12 +1881,12 @@
       <c r="E24" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="49" customHeight="1">
       <c r="A25" s="54">
@@ -1871,12 +1901,12 @@
       </c>
       <c r="D25" s="56"/>
       <c r="E25" s="49"/>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="54">
@@ -1898,12 +1928,12 @@
       <c r="H26" s="21"/>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="1:10" s="78" customFormat="1">
+    <row r="27" spans="1:10" s="59" customFormat="1">
       <c r="A27" s="41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="57" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -1919,18 +1949,30 @@
       <c r="G27" s="50"/>
       <c r="H27" s="50"/>
       <c r="I27" s="50"/>
-      <c r="J27" s="77"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
+      <c r="J27" s="58"/>
+    </row>
+    <row r="28" spans="1:10" s="59" customFormat="1">
+      <c r="A28" s="41">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="56"/>
+      <c r="E28" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="58"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="17"/>
@@ -1944,26 +1986,29 @@
       <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F15:I15"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
@@ -1974,20 +2019,28 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F15:I15"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F46" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F47" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D24 D26 D28:D30" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D14:D24 D26 D29:D31" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>必須</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C24 C28:C30" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="C14:C24 C29:C31" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>型リスト</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D27" xr:uid="{DED57371-C83B-3244-A770-3E3214D9F4B1}">
+    <dataValidation type="list" operator="equal" allowBlank="1" sqref="D27:D28" xr:uid="{DED57371-C83B-3244-A770-3E3214D9F4B1}">
       <formula1>必須</formula1>
       <formula2>0</formula2>
     </dataValidation>
